--- a/biology/Médecine/Jointure_synoviale/Jointure_synoviale.xlsx
+++ b/biology/Médecine/Jointure_synoviale/Jointure_synoviale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une jointure synoviale (aussi appelée articulation synoviale, diarthrose, abarthrose, aparthrose, articulation diarthrodiale, articulation vraie) est une articulation mobile. Il s'agit du type d'articulation la plus courante et la plus mobile dans le corps d'un mammifère. Elle relie deux os en les séparant par une cavité synoviale et en les maintenant par des ligaments.
 Le terme diarthrose désigne une articulation de grande mobilité pas nécessairement synoviale. Chez l'humain, toutes les diarthroses sont des jointures synoviales.
@@ -512,9 +524,11 @@
           <t>Structure</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Une jointure synoviale est constituée des éléments suivants :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Une jointure synoviale est constituée des éléments suivants :
 une cavité articulaire;
 une capsule articulaire ;
 des cartilages articulaires.
@@ -522,11 +536,80 @@
 un disque articulaire ;
 des coussinets adipeux ;
 des tendons ;
-des bourses synoviales.
-Cavité articulaire
-La cavité articulaire est l'espace séparant les surfaces articulaires des os. Elle est remplie de liquide synovial. Le liquide synovial lubrifie, absorbe des chocs et nourrit l'articulation.
-Capsule articulaire
-La capsule articulaire relie les os entre-eux formant la cavité articulaire. Elle est en continuité avec le périoste des os et entoure les surfaces articulaires des os.
+des bourses synoviales.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Jointure_synoviale</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jointure_synoviale</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Structure</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Cavité articulaire</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La cavité articulaire est l'espace séparant les surfaces articulaires des os. Elle est remplie de liquide synovial. Le liquide synovial lubrifie, absorbe des chocs et nourrit l'articulation.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Jointure_synoviale</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jointure_synoviale</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Structure</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Capsule articulaire</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La capsule articulaire relie les os entre-eux formant la cavité articulaire. Elle est en continuité avec le périoste des os et entoure les surfaces articulaires des os.
 Elle se compose de deux couches :
 une membrane fibreuse externe qui peut contenir des ligaments ;
 une membrane synoviale interne qui sécrète le liquide synovial lubrifiant, absorbant les chocs et nourrissant l'articulation ;
@@ -535,46 +618,223 @@
 une membrane fibreuse externe qui peut contenir des ligaments,
 une membrane synoviale interne qui sécrète le liquide synovial lubrifiant.
 La capsule articulaire est hautement innervée, mais sans vaisseaux sanguins, ni vaisseaux lymphatiques. Elle reçoit ses nutriments de l'apport sanguin environnant par diffusion (un processus lent) ou par convection, processus rendu plus efficace par la mobilisation de l'articulation (exercice physique).
-Cartilages articulaires
-Un cartilage articulaire recouvre les extrémités articulaires des os de l'articulation. C'est un cartilage hyalin formant une surface lisse et glissante qui ne les lie pas les os entre eux. Il absorbe les chocs et réduit la friction pendant le mouvement.
-Disque articulaire
-Un ou des disques articulaires peuvent s'interposer entre les éléments osseux afin d'améliorer la congruence entre les surfaces articulaires. Ils sont constitués de fibrocartilage. Ils sont adhérents à leur périphérie à la face profonde de la capsule articulaire. S'ils sont incomplets, on les nomme ménisques articulaires.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Jointure_synoviale</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jointure_synoviale</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Structure</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Cartilages articulaires</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un cartilage articulaire recouvre les extrémités articulaires des os de l'articulation. C'est un cartilage hyalin formant une surface lisse et glissante qui ne les lie pas les os entre eux. Il absorbe les chocs et réduit la friction pendant le mouvement.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Jointure_synoviale</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jointure_synoviale</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Structure</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Disque articulaire</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un ou des disques articulaires peuvent s'interposer entre les éléments osseux afin d'améliorer la congruence entre les surfaces articulaires. Ils sont constitués de fibrocartilage. Ils sont adhérents à leur périphérie à la face profonde de la capsule articulaire. S'ils sont incomplets, on les nomme ménisques articulaires.
 Pour l'espèce humaine, les articulations sterno-claviculaire, temporo-mandibulaire, acromio-claviculaire et radio-ulnaire distale possèdent un disque articulaire et l'articulation fémoro-tibiale possède deux ménisques articulaires.
-Coussinet adipeux
-Un ou des coussinets adipeux, constitués de tissu adipeux peuvent être présents pour protèger le cartilage articulaire. C'est le cas de l'articulation au niveau de l'articulation fémoro-patellaire, entre la face postérieure de la patella et la surface patellaire du fémur.
-Bourses synoviales
-Des bourses synoviales peuvent également contribuer à atténuer les frictions lors le la mobilisation de l'articulation. Ce sont des structures en forme de sacs remplies d'un liquide similaire au liquide synovial. Elles peuvent être situées entre des tendons et l'os, entre des masses musculaires ou entre des ligaments ou des tendons. On en trouve au niveau de l'articulation gléno-humérale ou du genou.
-Ligaments et tendons
-En dehors de la capsule articulaire, l'articulation peut être consolidée par des systèmes tendineux et ligamentaire. Ils peuvent être intracapsulaires, capsulaires ou extracapsulaires.
 </t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Jointure_synoviale</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Jointure_synoviale</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Jointure_synoviale</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jointure_synoviale</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Structure</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Coussinet adipeux</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un ou des coussinets adipeux, constitués de tissu adipeux peuvent être présents pour protèger le cartilage articulaire. C'est le cas de l'articulation au niveau de l'articulation fémoro-patellaire, entre la face postérieure de la patella et la surface patellaire du fémur.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Jointure_synoviale</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jointure_synoviale</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Structure</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Bourses synoviales</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Des bourses synoviales peuvent également contribuer à atténuer les frictions lors le la mobilisation de l'articulation. Ce sont des structures en forme de sacs remplies d'un liquide similaire au liquide synovial. Elles peuvent être situées entre des tendons et l'os, entre des masses musculaires ou entre des ligaments ou des tendons. On en trouve au niveau de l'articulation gléno-humérale ou du genou.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Jointure_synoviale</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jointure_synoviale</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Structure</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Ligaments et tendons</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En dehors de la capsule articulaire, l'articulation peut être consolidée par des systèmes tendineux et ligamentaire. Ils peuvent être intracapsulaires, capsulaires ou extracapsulaires.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Jointure_synoviale</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jointure_synoviale</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Classification des jointures synoviales</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t xml:space="preserve">Les diarthroses sont classées en fonction du nombre d'os constituant l'articulation, du nombre d'axes directeurs (degrés de liberté) qu'elles possèdent et en fonction de la forme de leurs surfaces articulaires.
 On parle d'articulation simple lorsqu'il n'y a que deux os qui interviennent dans l'articulation et d'articulation composée lorsque l'articulation est composée de plus de deux os.
@@ -582,38 +842,40 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Jointure_synoviale</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Jointure_synoviale</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Jointure_synoviale</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jointure_synoviale</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Aspect clinique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>L'espace articulaire est égal à la distance entre les os impliqués de l'articulation. Un rétrécissement de l'espace articulaire est un signe d'arthrose et de dégénérescence inflammatoire[1]. Le pincement de l'interligne articulaire est un critère pour la classification radiographique de l'arthrose.
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>L'espace articulaire est égal à la distance entre les os impliqués de l'articulation. Un rétrécissement de l'espace articulaire est un signe d'arthrose et de dégénérescence inflammatoire. Le pincement de l'interligne articulaire est un critère pour la classification radiographique de l'arthrose.
 L'espace articulaire normal est :
-d'au moins 2 mm pour l'articulation coxale (au niveau de l'acétabulum supérieur)[2] ;
-au moins 3 mm pour l'articulation fémoro-tibiale[3] ;
-4–5 mm pour l'articulation gléno-humérale[4] ;
-1,5 à 4 mm pour l'articulation temporo-mandibulairel[5].</t>
+d'au moins 2 mm pour l'articulation coxale (au niveau de l'acétabulum supérieur) ;
+au moins 3 mm pour l'articulation fémoro-tibiale ;
+4–5 mm pour l'articulation gléno-humérale ;
+1,5 à 4 mm pour l'articulation temporo-mandibulairel.</t>
         </is>
       </c>
     </row>
